--- a/biology/Zoologie/Amazone_de_Cuba/Amazone_de_Cuba.xlsx
+++ b/biology/Zoologie/Amazone_de_Cuba/Amazone_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona leucocephala
 L'Amazone de Cuba (Amazona leucocephala) est une espèce de perroquets qui a été en grand danger d'extinction avant d'être réintroduite dans divers milieux originels.
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Amazone de Cuba est un perroquet de taille moyenne (environ 32 cm) à l'aspect robuste. Elle présente un plumage vert vif caractérisé par une bordure noire sur les plumes et produisant ainsi un effet particulier sur la coloration générale du plumage[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amazone de Cuba est un perroquet de taille moyenne (environ 32 cm) à l'aspect robuste. Elle présente un plumage vert vif caractérisé par une bordure noire sur les plumes et produisant ainsi un effet particulier sur la coloration générale du plumage.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Amazone de Cuba demeure le plus souvent dans les arbres et ne descend au sol qu'à de rares occasions.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les milieux boisés éloignés des habitations humaines.
 </t>
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sous-espèces
-Quatre sous-espèces d'Amazone de Cuba sont reconnues :
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Quatre sous-espèces d'Amazone de Cuba sont reconnues :
 Amazona leucocephala bahamensis (H. Bryant, 1867), sur plusieurs îles de l'archipel des Bahamas ;
 Amazona leucocephala caymanensis (Cory, 1886), de l'île Grand Cayman ;
 Amazona leucocephala hesterna (Bangs, 1916), de l'île Little Cayman ;
